--- a/Demand.xlsx
+++ b/Demand.xlsx
@@ -83,12 +83,12 @@
     <t>SKF3L</t>
   </si>
   <si>
+    <t>C70S6</t>
+  </si>
+  <si>
     <t>S55C</t>
   </si>
   <si>
-    <t>C70S6</t>
-  </si>
-  <si>
     <t>F45MnVS-TS00041V2</t>
   </si>
   <si>
@@ -137,12 +137,12 @@
     <t>40Cr-bar3077</t>
   </si>
   <si>
+    <t>S45SC-1497</t>
+  </si>
+  <si>
     <t>35MnBH-1</t>
   </si>
   <si>
-    <t>S45SC-1497</t>
-  </si>
-  <si>
     <t>25MnVK</t>
   </si>
   <si>
@@ -173,24 +173,24 @@
     <t>40Cr-AH</t>
   </si>
   <si>
+    <t>40Cr-XLY</t>
+  </si>
+  <si>
     <t>SUJ2S1</t>
   </si>
   <si>
-    <t>40Cr-XLY</t>
-  </si>
-  <si>
     <t>S55C-SV</t>
   </si>
   <si>
     <t>N45S</t>
   </si>
   <si>
+    <t>SAE1050M</t>
+  </si>
+  <si>
     <t>45#</t>
   </si>
   <si>
-    <t>SAE1050M</t>
-  </si>
-  <si>
     <t>QT45</t>
   </si>
   <si>
@@ -233,16 +233,16 @@
     <t>Q355D</t>
   </si>
   <si>
+    <t>S45C-NJ</t>
+  </si>
+  <si>
     <t>20Cr-bar3077</t>
   </si>
   <si>
-    <t>S45C-NJ</t>
+    <t>11SMn30</t>
   </si>
   <si>
     <t>20G-CB</t>
-  </si>
-  <si>
-    <t>11SMn30</t>
   </si>
   <si>
     <t>50CrVA-1264</t>
@@ -486,7 +486,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>891.6622314453125</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="24">
@@ -494,7 +494,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>4.0</v>
+        <v>891.6622314453125</v>
       </c>
     </row>
     <row r="25">
@@ -630,7 +630,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>1514.416748046875</v>
+        <v>1555.479248046875</v>
       </c>
     </row>
     <row r="42">
@@ -638,7 +638,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>1555.479248046875</v>
+        <v>1514.416748046875</v>
       </c>
     </row>
     <row r="43">
@@ -726,7 +726,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>888.0</v>
+        <v>426.4024658203125</v>
       </c>
     </row>
     <row r="54">
@@ -734,7 +734,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>426.4024658203125</v>
+        <v>888.0</v>
       </c>
     </row>
     <row r="55">
@@ -758,7 +758,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="n">
-        <v>9958.5302734375</v>
+        <v>515.7407836914062</v>
       </c>
     </row>
     <row r="58">
@@ -766,7 +766,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="n">
-        <v>515.7407836914062</v>
+        <v>9958.5302734375</v>
       </c>
     </row>
     <row r="59">
@@ -886,7 +886,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>439.98199462890625</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="74">
@@ -894,7 +894,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>35.0</v>
+        <v>439.98199462890625</v>
       </c>
     </row>
     <row r="75">
@@ -902,7 +902,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="n">
-        <v>1000.0</v>
+        <v>75.51681518554688</v>
       </c>
     </row>
     <row r="76">
@@ -910,7 +910,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="n">
-        <v>75.51681518554688</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="77">
